--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3388064.210191936</v>
+        <v>3463593.879856741</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>154.803871090932</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>321.2889091872196</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>121.43127627971</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>339.509111868476</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>340.9483286155174</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.133202090546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>77.39358699307076</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>245.561388549996</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.35153719005456</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>72.20875484425791</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1457777733152</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>215.6214853475426</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.3021850733814</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>155.8385935972302</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701354</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4653217847137</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>143.4623085010276</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>33.17318564481655</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.31285845810835</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>139.5830409719319</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>51.49981888736098</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>204.129165153206</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>172.7067178467367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>213.4998989363463</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>213.0001531429322</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>60.25574836862782</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>24.01233557466622</v>
       </c>
       <c r="W46" t="n">
-        <v>45.41934813295845</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2485.752854992219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2154.689967648648</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2154.689967648648</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1781.224209387568</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2440.423984540446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2440.423984540446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2440.423984540446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2292.510890958053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2145.620943460143</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2145.620943460143</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2145.620943460143</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2440.423984540446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2440.423984540446</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>2440.423984540446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>2440.423984540446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2440.423984540446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2440.423984540446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.619444146874</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>962.7871137416676</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>551.8012089520601</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.219284210996</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>649.953643809393</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>429.1610646658629</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>705.5516739134498</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>557.4050153476338</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635878</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8104215925219</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5300,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>561.0854916454658</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>561.0854916454658</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>561.0854916454658</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>413.1723980630727</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>413.1723980630727</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9970763828933</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.503549752619</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>781.878070788996</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>561.0854916454658</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.597763704656</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1089.812348494162</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5746,31 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5971,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1124.545030325236</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>835.416391538794</v>
+        <v>1354.33289879163</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1099.648410585743</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>810.2312405487826</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6269,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>306.1124721890595</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C28" t="n">
-        <v>306.1124721890595</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D28" t="n">
-        <v>306.1124721890595</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>306.1124721890595</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>306.1124721890595</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>137.9371505088801</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>1046.928186356561</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325897</v>
+        <v>1046.928186356561</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.1124721890595</v>
+        <v>826.1356072130308</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>260.7717019164808</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>260.7717019164808</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>260.7717019164808</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929844</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.020508932908</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>3893.336020727022</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814692</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916675</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6682,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919603</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>683.6408484074925</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>394.223678370532</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7390,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,25 +7405,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7599,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819383</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.6075462588844</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>653.6713633309776</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>503.5547239186418</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W46" t="n">
-        <v>1453.038141130672</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.048590232654</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.256011089124</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670008</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>111.563877615722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>2.963168004552188</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>2.61164329415476</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>130.6844047393608</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>14.45548819888955</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>36.36967168090965</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>48.84084321165255</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>253.0641667537608</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>108.6009699094278</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>146.9399573646591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>114.9937495760166</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338497</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43092547709131</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>8.047662122042965</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25552,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>39.13749018089581</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>106.2378200947498</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>228.1253077491618</v>
       </c>
       <c r="W46" t="n">
-        <v>241.1036502036326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26314,7 +26316,7 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
@@ -26323,37 +26325,37 @@
         <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409899</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="O2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409902</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,31 +26429,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687076</v>
       </c>
-      <c r="L4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332306</v>
+        <v>-120048.2764332307</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813139</v>
+        <v>469919.6027813141</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813139</v>
+        <v>469919.6027813138</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.8845285069</v>
+        <v>44978.88452850659</v>
       </c>
       <c r="F6" t="n">
+        <v>570138.921005403</v>
+      </c>
+      <c r="G6" t="n">
         <v>570138.9210054028</v>
       </c>
-      <c r="G6" t="n">
-        <v>570138.9210054026</v>
-      </c>
       <c r="H6" t="n">
+        <v>570138.921005403</v>
+      </c>
+      <c r="I6" t="n">
         <v>570138.9210054033</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>393715.7018128101</v>
+      </c>
+      <c r="K6" t="n">
+        <v>570138.9210054029</v>
+      </c>
+      <c r="L6" t="n">
+        <v>570138.9210054028</v>
+      </c>
+      <c r="M6" t="n">
+        <v>435337.9057715659</v>
+      </c>
+      <c r="N6" t="n">
         <v>570138.9210054032</v>
       </c>
-      <c r="J6" t="n">
-        <v>393715.7018128099</v>
-      </c>
-      <c r="K6" t="n">
-        <v>570138.9210054027</v>
-      </c>
-      <c r="L6" t="n">
-        <v>570138.921005403</v>
-      </c>
-      <c r="M6" t="n">
-        <v>435337.9057715657</v>
-      </c>
-      <c r="N6" t="n">
-        <v>570138.921005403</v>
-      </c>
       <c r="O6" t="n">
-        <v>570138.9210054033</v>
+        <v>570138.9210054032</v>
       </c>
       <c r="P6" t="n">
-        <v>570138.9210054028</v>
+        <v>570138.9210054029</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>96.42029641735726</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>48.44219149124939</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>13.53434551262821</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>25.76377990253155</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>72.83584140527762</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>7.012336859472896</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>148.3160683959664</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>5.662778958293302</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.771212764859744</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.0731193977198</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29056,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,19 +37393,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37795,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3463593.879856741</v>
+        <v>3456576.86496503</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>323.6094180979266</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>321.2889091872196</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>74.53436060286491</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>148.9298212576751</v>
       </c>
       <c r="G5" t="n">
-        <v>340.9483286155174</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>247.9966967793303</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>77.39358699307076</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>245.561388549996</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>96.36163317610354</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>72.20875484425791</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343914014</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.0275057367278</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.6214853475426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.3021850733814</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.4623085010276</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>33.17318564481655</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>139.5830409719319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.49981888736098</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719505</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>213.4998989363463</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>177.6778654977372</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>213.0001531429322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.25574836862782</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>24.01233557466622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>945.273062713798</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>534.2871579241905</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2372.61483931396</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.475507338148</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.803581887074</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1706.841064946662</v>
+        <v>980.6066514154686</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.575366339912</v>
+        <v>622.3409528087182</v>
       </c>
       <c r="E5" t="n">
-        <v>962.7871137416676</v>
+        <v>622.3409528087182</v>
       </c>
       <c r="F5" t="n">
-        <v>551.8012089520601</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4606,13 +4606,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>649.953643809393</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.1610646658629</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4816,16 +4816,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1999.266440218791</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1999.266440218791</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.497784948677</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1273.032026687597</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>882.8926947117852</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,22 +5038,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>840.6429075085871</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>690.5262680962513</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>542.6131745138582</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>395.7232270159478</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>227.5479053357684</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765191</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>496.6650364395585</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>496.6650364395585</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>1009.579090436494</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.0854916454658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>561.0854916454658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>561.0854916454658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>413.1723980630727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>413.1723980630727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>244.9970763828933</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>781.878070788996</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.0854916454658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,55 +5971,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1354.33289879163</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1099.648410585743</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>810.2312405487826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.1356072130308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.928186356561</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1046.928186356561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>826.1356072130308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>462.7283310300503</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.8883413288165</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>410.8883413288165</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>260.7717019164808</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>260.7717019164808</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>260.7717019164808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>820.5263570570736</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>592.5368061590563</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>592.5368061590563</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028583</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,64 +6925,64 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4334.202995919603</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4334.202995919603</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4334.202995919603</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4334.202995919603</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>4334.202995919603</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X37" t="n">
-        <v>4334.202995919603</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y37" t="n">
-        <v>4334.202995919603</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>683.6408484074925</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
-        <v>394.223678370532</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>420.0340835819383</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488382</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>874.5376338299834</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>874.5376338299834</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>646.5480829319661</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M21" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>176.7176547498455</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504743</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928347</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504743</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928347</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>145.2351313103796</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>19.88632263080837</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.963168004552188</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>2.61164329415476</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.36967168090965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>253.0641667537608</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>146.9399573646591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>114.9937495760166</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>103.0576765518775</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>8.047662122042965</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>108.8451328388538</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>39.13749018089581</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>106.2378200947498</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>14.7411341369035</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>228.1253077491618</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372855</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372857</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372857</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372857</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409897</v>
       </c>
       <c r="K2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="L2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409904</v>
-      </c>
       <c r="N2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687076</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332307</v>
+        <v>-120048.2764332306</v>
       </c>
       <c r="C6" t="n">
         <v>469919.6027813141</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813138</v>
+        <v>469919.602781314</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850659</v>
+        <v>44004.29326878509</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.921005403</v>
+        <v>569164.3297456813</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.9210054028</v>
+        <v>569164.3297456809</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.921005403</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054033</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.7018128101</v>
+        <v>392741.1105530878</v>
       </c>
       <c r="K6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.329745681</v>
       </c>
       <c r="L6" t="n">
-        <v>570138.9210054028</v>
+        <v>569164.3297456813</v>
       </c>
       <c r="M6" t="n">
-        <v>435337.9057715659</v>
+        <v>434363.314511844</v>
       </c>
       <c r="N6" t="n">
-        <v>570138.9210054032</v>
+        <v>569164.3297456813</v>
       </c>
       <c r="O6" t="n">
-        <v>570138.9210054032</v>
+        <v>569164.3297456813</v>
       </c>
       <c r="P6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.3297456813</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>90.17475192286844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>48.44219149124939</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>92.71246049576293</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>257.9462244840363</v>
       </c>
       <c r="G5" t="n">
-        <v>72.83584140527762</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>38.2851774626474</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>148.3160683959664</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>5.662778958293302</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>273.3694675023655</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>214.0731193977198</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974509</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,43 +34441,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>327.2930933377847</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221136</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221136</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P45" t="n">
-        <v>352.3285462419043</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3456576.86496503</v>
+        <v>3461516.127814063</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>323.6094180979266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>215.5278181602327</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>74.53436060286491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>148.9298212576751</v>
+        <v>148.9298212576743</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>247.9966967793303</v>
+        <v>247.9966967793301</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>96.36163317610354</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343914014</v>
+        <v>43.3178534391397</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>129.0275057367278</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>36.69709007412187</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>123.8159420274846</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>95.02525064967651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>57.64843562452383</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>149.0799667719505</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>177.6778654977372</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290781</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>206.8064269214858</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>29.18937547121062</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>945.273062713798</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>534.2871579241905</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2479.444224189705</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,7 +4418,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1349.569168355879</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154686</v>
+        <v>980.6066514154677</v>
       </c>
       <c r="D5" t="n">
-        <v>622.3409528087182</v>
+        <v>622.3409528087172</v>
       </c>
       <c r="E5" t="n">
-        <v>622.3409528087182</v>
+        <v>622.3409528087172</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1349.569168355879</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4716,46 +4716,46 @@
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
         <v>477.6272702879189</v>
@@ -4792,58 +4792,58 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
         <v>2568.06040664989</v>
@@ -4938,67 +4938,67 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
         <v>684.3735766921516</v>
@@ -5023,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,16 +5120,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1009.579090436494</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C13" t="n">
-        <v>840.6429075085871</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>690.5262680962513</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>542.6131745138582</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>395.7232270159478</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>227.5479053357684</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1461.848502806264</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1461.848502806264</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.579090436494</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="Y13" t="n">
-        <v>1009.579090436494</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>333.8182909469086</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5731,22 +5731,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,7 +5834,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
         <v>1196.088769018223</v>
@@ -5843,7 +5843,7 @@
         <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O21" t="n">
         <v>2112.811595180915</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514089</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126481</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>324.3840174432673</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>155.4478345153604</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,7 +6864,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471189</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609662</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0324822735071</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6946,43 +6946,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028587</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.759190940159</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765184</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706316</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="W40" t="n">
-        <v>241.980548233671</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,64 +7399,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7730,10 +7730,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028587</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445221</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928347</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928347</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.88632263080837</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>249.5402623244555</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>56.01603815445273</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368851</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>103.0576765518775</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>108.8451328388538</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>140.3375291694993</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338594</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>14.7411341369035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>189.3952778808842</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>705687.6684372857</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705687.6684372857</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="E2" t="n">
         <v>684300.85454099</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409899</v>
-      </c>
       <c r="H2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409897</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.85454099</v>
-      </c>
       <c r="L2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="M2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.60758687079</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="K4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.60758687073</v>
-      </c>
       <c r="P4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332306</v>
+        <v>-120048.2764332301</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813141</v>
+        <v>469919.6027813143</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.602781314</v>
+        <v>469919.6027813145</v>
       </c>
       <c r="E6" t="n">
-        <v>44004.29326878509</v>
+        <v>44881.42540253418</v>
       </c>
       <c r="F6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794312</v>
       </c>
       <c r="G6" t="n">
-        <v>569164.3297456809</v>
+        <v>570041.4618794309</v>
       </c>
       <c r="H6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.4618794306</v>
       </c>
       <c r="I6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="J6" t="n">
-        <v>392741.1105530878</v>
+        <v>393618.242686838</v>
       </c>
       <c r="K6" t="n">
-        <v>569164.329745681</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="L6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="M6" t="n">
-        <v>434363.314511844</v>
+        <v>435240.4466455937</v>
       </c>
       <c r="N6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794312</v>
       </c>
       <c r="O6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794307</v>
       </c>
       <c r="P6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.461879431</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.17475192286844</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>35.6963493480566</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>92.71246049576293</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>257.9462244840363</v>
+        <v>257.9462244840371</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>38.2851774626474</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>273.3694675023655</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974509</v>
+        <v>243.2051448974513</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
@@ -33426,16 +33426,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946991</v>
@@ -33450,7 +33450,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
         <v>0.2670576580354892</v>
@@ -33496,25 +33496,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458548</v>
@@ -33523,13 +33523,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,19 +33575,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
@@ -33596,22 +33596,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
@@ -33663,16 +33663,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946991</v>
@@ -33687,7 +33687,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
         <v>0.2670576580354892</v>
@@ -33733,25 +33733,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458548</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,19 +33812,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
@@ -33833,22 +33833,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
@@ -33900,16 +33900,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946991</v>
@@ -33924,7 +33924,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
         <v>0.2670576580354892</v>
@@ -33970,25 +33970,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458548</v>
@@ -33997,13 +33997,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,19 +34049,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
@@ -34070,22 +34070,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,43 +34441,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560242</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560242</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560242</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
